--- a/AVS-Deployment/avssimplifieddeployment.xlsx
+++ b/AVS-Deployment/avssimplifieddeployment.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tredavis_microsoft_com/Documents/GitHub/Azure VMware Solution/AVS-Deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05B3847A-4ABE-4E93-A3EE-24A0AC806183}"/>
+  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5AAFDA9-DEDF-40D3-B672-113710566DD0}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
   </bookViews>
   <sheets>
-    <sheet name="AVSSimplifiedDeployment-Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="variables" sheetId="3" r:id="rId3"/>
+    <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
+    <sheet name="AVSSimplifiedDeployment-Inputs" sheetId="1" r:id="rId2"/>
+    <sheet name="EXAMPLE" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="variables" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -388,9 +390,6 @@
     <t>ExpressRoute Gateway Resource Group</t>
   </si>
   <si>
-    <t>1178f22f-6ce4-45e3-bd92-ba89930be5be</t>
-  </si>
-  <si>
     <t>$avssub</t>
   </si>
   <si>
@@ -442,46 +441,54 @@
     <t>$gatewaysubnetaddressspace</t>
   </si>
   <si>
-    <t>VirtualWorkloads-AVS-PC01</t>
-  </si>
-  <si>
     <t>10.0.0.0/22</t>
   </si>
   <si>
     <t>10.55.2.0/24</t>
   </si>
   <si>
-    <t>tredavis-ARC</t>
-  </si>
-  <si>
-    <t>tredavis-ARC-vNet</t>
-  </si>
-  <si>
-    <t>tredavis-ARC-ExpressRouteGateway</t>
+    <t>Azure VMware Solution Simplified Deployment</t>
+  </si>
+  <si>
+    <t>11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</t>
+  </si>
+  <si>
+    <t>myavsresourcegroup</t>
+  </si>
+  <si>
+    <t>myavsprivatecloud</t>
+  </si>
+  <si>
+    <t>myvnet</t>
+  </si>
+  <si>
+    <t>MyAVSvNetGateway</t>
+  </si>
+  <si>
+    <t>AVSResourceGroup</t>
+  </si>
+  <si>
+    <t>MyOnPremCircuit</t>
+  </si>
+  <si>
+    <t>ProductionResourceGroup</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Which AVS SKU would you like to deploy?</t>
+  </si>
+  <si>
+    <t>For questions, please reach out to Trevor Davis on Twitter @vTrevorDavis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -495,16 +502,87 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tenorite"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tenorite"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Tenorite"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Tenorite"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="Tenorite"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A1F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBB00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7CBB00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF737373"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF65314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -512,73 +590,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -587,21 +895,87 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF737373"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <color theme="0"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF737373"/>
+      <color rgb="FF7CBB00"/>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FFCC00FF"/>
+      <color rgb="FF00A1F1"/>
+      <color rgb="FFF65314"/>
+      <color rgb="FFFFBB00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -611,6 +985,170 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>134470</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>21175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1105648</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB12B446-01E4-508F-2F06-E95FEED82AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="8209" b="91045" l="7143" r="92208">
+                      <a14:foregroundMark x1="7792" y1="55224" x2="7792" y2="55224"/>
+                      <a14:foregroundMark x1="92208" y1="60448" x2="92208" y2="60448"/>
+                      <a14:foregroundMark x1="61688" y1="89552" x2="61688" y2="89552"/>
+                      <a14:foregroundMark x1="77273" y1="91045" x2="77273" y2="91045"/>
+                      <a14:foregroundMark x1="74675" y1="90299" x2="74675" y2="90299"/>
+                      <a14:foregroundMark x1="73377" y1="82090" x2="73377" y2="82090"/>
+                      <a14:foregroundMark x1="52597" y1="36567" x2="52597" y2="36567"/>
+                      <a14:foregroundMark x1="52597" y1="35075" x2="52597" y2="35075"/>
+                      <a14:foregroundMark x1="48701" y1="32836" x2="48701" y2="32836"/>
+                      <a14:foregroundMark x1="46104" y1="34328" x2="46104" y2="34328"/>
+                      <a14:foregroundMark x1="43506" y1="38060" x2="43506" y2="38060"/>
+                      <a14:foregroundMark x1="38961" y1="44030" x2="38961" y2="44030"/>
+                      <a14:foregroundMark x1="40909" y1="54478" x2="40909" y2="54478"/>
+                      <a14:foregroundMark x1="45455" y1="64925" x2="45455" y2="64925"/>
+                      <a14:foregroundMark x1="53896" y1="64925" x2="53896" y2="64925"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="747058" y="21175"/>
+          <a:ext cx="971178" cy="854348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>149412</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>12860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1187824</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20F63762-75C2-4116-B7C3-9C3CFFD6CC46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="8209" b="91045" l="7143" r="92208">
+                      <a14:foregroundMark x1="7792" y1="55224" x2="7792" y2="55224"/>
+                      <a14:foregroundMark x1="92208" y1="60448" x2="92208" y2="60448"/>
+                      <a14:foregroundMark x1="61688" y1="89552" x2="61688" y2="89552"/>
+                      <a14:foregroundMark x1="77273" y1="91045" x2="77273" y2="91045"/>
+                      <a14:foregroundMark x1="74675" y1="90299" x2="74675" y2="90299"/>
+                      <a14:foregroundMark x1="73377" y1="82090" x2="73377" y2="82090"/>
+                      <a14:foregroundMark x1="52597" y1="36567" x2="52597" y2="36567"/>
+                      <a14:foregroundMark x1="52597" y1="35075" x2="52597" y2="35075"/>
+                      <a14:foregroundMark x1="48701" y1="32836" x2="48701" y2="32836"/>
+                      <a14:foregroundMark x1="46104" y1="34328" x2="46104" y2="34328"/>
+                      <a14:foregroundMark x1="43506" y1="38060" x2="43506" y2="38060"/>
+                      <a14:foregroundMark x1="38961" y1="44030" x2="38961" y2="44030"/>
+                      <a14:foregroundMark x1="40909" y1="54478" x2="40909" y2="54478"/>
+                      <a14:foregroundMark x1="45455" y1="64925" x2="45455" y2="64925"/>
+                      <a14:foregroundMark x1="53896" y1="64925" x2="53896" y2="64925"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="12860"/>
+          <a:ext cx="1038412" cy="913494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -909,275 +1447,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A595C-DAF3-4421-A1FA-87EFAA3B5CCC}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A4:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D33C202-A6F5-485F-831C-6DD61CA6177C}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A595C-DAF3-4421-A1FA-87EFAA3B5CCC}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.6328125" customWidth="1"/>
-    <col min="3" max="3" width="112.90625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="52.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="64.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="138.6328125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="22"/>
+      <c r="B1" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="22"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="65" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="22"/>
+      <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="58" t="str">
+        <f>"Example: " &amp; EXAMPLE!C7</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="22"/>
+      <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="22"/>
+      <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="58" t="str">
+        <f>"Example: " &amp; EXAMPLE!C9</f>
+        <v>Example: myavsresourcegroup</v>
+      </c>
+      <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="C10" s="58" t="str">
+        <f>"Example: " &amp; EXAMPLE!C10</f>
+        <v>Example: myavsprivatecloud</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
+      <c r="A12" s="22"/>
+      <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="C12" s="59" t="str">
+        <f>"Example: " &amp; EXAMPLE!C12</f>
+        <v>Example: 10.0.0.0/22</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="22"/>
+      <c r="B14" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="C15" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="43" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f>IF($B$13="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="C16" s="62" t="str">
+        <f>"Example: " &amp; EXAMPLE!C16</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="D16" s="45" t="str">
+        <f>IF($C$15="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
+        <v>What is the Subscription ID where the ExpressRoute Gateway is currently deployed?</v>
+      </c>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="22"/>
+      <c r="B17" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f>IF($B$13="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="C17" s="62" t="str">
+        <f>"Example: " &amp; EXAMPLE!C17</f>
+        <v>Example: myvnet</v>
+      </c>
+      <c r="D17" s="45" t="str">
+        <f>IF($C$15="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
+        <v>What is name of the vNet where the ExpressRoute Gateway is currently deployed?</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f>IF($B$13="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
-        <v>What is the name you want to assign to the new ExpressRoute Gateway?</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+      <c r="C18" s="62" t="str">
+        <f>"Example: " &amp; EXAMPLE!C18</f>
+        <v>Example: MyAVSvNetGateway</v>
+      </c>
+      <c r="D18" s="45" t="str">
+        <f>IF($C$15="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
+        <v>What is the name of the existing ExpressRoute Gateway?</v>
+      </c>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="22"/>
+      <c r="B19" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="6" t="str">
-        <f>IF($B$13="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
-        <v>What region should the ExpressRoute Gateway be deployed?</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="C19" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="45" t="str">
+        <f>IF($C$15="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
+        <v>What region is the ExpressRoute Gateway currently deployed?</v>
+      </c>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+      <c r="A20" s="22"/>
+      <c r="B20" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f>IF($B$13="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
-        <v>What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+      <c r="C20" s="62" t="str">
+        <f>"Example: " &amp; EXAMPLE!C20</f>
+        <v>Example: AVSResourceGroup</v>
+      </c>
+      <c r="D20" s="45" t="str">
+        <f>IF($C$15="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
+        <v xml:space="preserve">What Resource Group is the ExpressRoute Gateway currently deployed?  </v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+      <c r="A21" s="22"/>
+      <c r="B21" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="C21" s="62" t="str">
+        <f>"Example: " &amp; EXAMPLE!C21</f>
+        <v>Example: 10.55.2.0/24</v>
+      </c>
+      <c r="D21" s="45" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="22"/>
+      <c r="B23" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="C24" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="50" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
+      <c r="B25" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="9"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="22"/>
+      <c r="B26" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+      <c r="C26" s="57" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" s="52"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8" t="s">
+      <c r="C27" s="64" t="str">
+        <f>"Example: " &amp; EXAMPLE!C27</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="D27" s="54" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="22"/>
+      <c r="B28" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
+      <c r="C28" s="64" t="str">
+        <f>"Example: " &amp; EXAMPLE!C28</f>
+        <v>Example: MyOnPremCircuit</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="7" t="s">
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="22"/>
+      <c r="B29" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="C29" s="64" t="str">
+        <f>"Example: " &amp; EXAMPLE!C29</f>
+        <v>Example: ProductionResourceGroup</v>
+      </c>
+      <c r="D29" s="56" t="s">
         <v>108</v>
       </c>
+      <c r="E29" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A23:XFD23">
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>$B$22=" --Make Selection--"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
-      <formula>$B$22="VPN/SD-WAN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$B$22="ExpressRoute"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
-      <formula>$B$22="It dosen't"</formula>
+  <sheetProtection algorithmName="SHA-512" hashValue="TEaiOaggN5uXOBnZfAoLZgAGEukEum/9edpKsSeWk94haOcepUJ9KQLcyq5rp4rhfkDebFfWqLeSC5FTwS+uzQ==" saltValue="sKM8WYov2dvUr6ltQF4VDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B26:D29">
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>$C$24&lt;&gt;"ExpressRoute"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A24:XFD27">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$B$22&lt;&gt;"ExpressRoute"</formula>
+  <conditionalFormatting sqref="B21:D21">
+    <cfRule type="expression" dxfId="6" priority="12">
+      <formula>$C$15="Existing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="expression" dxfId="1" priority="10">
-      <formula>$B$19="N/A"</formula>
+  <conditionalFormatting sqref="B25:D25">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$C$24=" --Make Selection--"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>$C$24="VPN/SD-WAN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>$C$24="ExpressRoute"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>$C$24="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$B$19="N/A"</formula>
+  <conditionalFormatting sqref="C7:C21">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>ISNUMBER(SEARCH("Example",C7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Format" prompt="Must be in this format - X.X.X.0/22, Example, 10.0.4.0/22" sqref="B9" xr:uid="{77B366BC-0583-4484-B558-1C936DE50EE3}"/>
-  </dataValidations>
+  <conditionalFormatting sqref="C27:C29">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>ISNUMBER(SEARCH("Example",C27))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C20" unlockedFormula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
@@ -1185,31 +1868,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>B6</xm:sqref>
+          <xm:sqref>C8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{204BFB0F-E118-4D1F-9650-CFEE35BD9992}">
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B22</xm:sqref>
+          <xm:sqref>C24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8520FE50-0FF2-4800-9FF3-4504ABE45190}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$1:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8287C2FF-7A0B-43D6-8D29-3F2054511EA6}">
+          <x14:formula1>
+            <xm:f>Sheet2!$E$1:$E$76</xm:f>
+          </x14:formula1>
+          <xm:sqref>C19</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7E6580A-16DD-4CDF-BF30-61611FF822B4}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B10:B12</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8520FE50-0FF2-4800-9FF3-4504ABE45190}">
-          <x14:formula1>
-            <xm:f>Sheet2!$D$1:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B13 B24</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8287C2FF-7A0B-43D6-8D29-3F2054511EA6}">
-          <x14:formula1>
-            <xm:f>Sheet2!$E$1:$E$76</xm:f>
-          </x14:formula1>
-          <xm:sqref>B17</xm:sqref>
+          <xm:sqref>C11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1217,13 +1900,429 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220023C4-DB6D-482A-B02A-12E2E300F61E}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="46.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="138.6328125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="22"/>
+    </row>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="22"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="22"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="22"/>
+      <c r="B6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="22"/>
+      <c r="B7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="22"/>
+      <c r="B8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9" s="22"/>
+      <c r="B9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="22"/>
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="22"/>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
+      <c r="A12" s="22"/>
+      <c r="B12" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="22"/>
+      <c r="B14" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
+      <c r="A15" s="22"/>
+      <c r="B15" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="20" t="str">
+        <f>IF($C$15="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
+        <v>What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?</v>
+      </c>
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="22"/>
+      <c r="B17" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="20" t="str">
+        <f>IF($C$15="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
+        <v>What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?</v>
+      </c>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" s="20" t="str">
+        <f>IF($C$15="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
+        <v>What is the name you want to assign to the new ExpressRoute Gateway?</v>
+      </c>
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="22"/>
+      <c r="B19" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="20" t="str">
+        <f>IF($C$15="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
+        <v>What region should the ExpressRoute Gateway be deployed?</v>
+      </c>
+      <c r="E19" s="22"/>
+    </row>
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+      <c r="A20" s="22"/>
+      <c r="B20" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f>IF($C$15="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
+        <v>What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+      <c r="A21" s="22"/>
+      <c r="B21" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="22"/>
+    </row>
+    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="22"/>
+      <c r="B23" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="22"/>
+      <c r="B24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="22"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="22"/>
+      <c r="B25" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="22"/>
+      <c r="B26" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="22"/>
+      <c r="B28" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="22"/>
+      <c r="B29" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="pqc88Z55Nyt/X0OC2aoPZM2UU+x4KMatnAT4yh8e+Hj59VpR1iPvLStPEenMPVpbcBpVEfhvnKoikrhS4tPD6Q==" saltValue="fRzqnOV9bhEZ2WSsDEFq9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A26:XFD29">
+    <cfRule type="expression" dxfId="13" priority="1">
+      <formula>$C$24&lt;&gt;"ExpressRoute"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:D21">
+    <cfRule type="expression" dxfId="12" priority="6">
+      <formula>$C$15="Existing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:D25">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$C$24=" --Make Selection--"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$C$24="VPN/SD-WAN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>$C$24="ExpressRoute"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="5">
+      <formula>$C$24="It dosen't"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Format" prompt="Must be in this format - X.X.X.0/22, Example, 10.0.4.0/22" sqref="C12" xr:uid="{A6C8E224-83B9-4D66-886C-CD3A88D98CBC}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E8564D6-63FF-4603-A91C-1E26FDFCE296}">
+          <x14:formula1>
+            <xm:f>Sheet2!$B$1:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C11 C14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2163898A-9236-4ED9-9438-EAE9183040FD}">
+          <x14:formula1>
+            <xm:f>Sheet2!$E$1:$E$76</xm:f>
+          </x14:formula1>
+          <xm:sqref>C19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2C872F1-FB31-4CD0-BE96-1E39C7CC5281}">
+          <x14:formula1>
+            <xm:f>Sheet2!$D$1:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C15 C26</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61B4C2D8-F71B-41F9-9297-F1C8B27ABC7B}">
+          <x14:formula1>
+            <xm:f>Sheet2!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B139CF2E-8B8E-4CBD-8F78-6A14363087AC}">
+          <x14:formula1>
+            <xm:f>Sheet2!$A$1:$A$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>C8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BD2BF4-A1D5-4479-8039-7C217C17B5B7}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1733,199 +2832,200 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEFFCAC-E961-4200-AF7B-F28C000C3CCE}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B1" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B5</f>
-        <v>1178f22f-6ce4-45e3-bd92-ba89930be5be</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C7</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B6</f>
-        <v>Australia East</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C8</f>
+        <v xml:space="preserve"> --Make Selection--</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B7</f>
-        <v>VirtualWorkloads-AVS-PC01</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C9</f>
+        <v>Example: myavsresourcegroup</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B8</f>
-        <v>VirtualWorkloads-AVS-PC01</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C10</f>
+        <v>Example: myavsprivatecloud</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B9</f>
-        <v>10.0.0.0/22</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C12</f>
+        <v>Example: 10.0.0.0/22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B10</f>
-        <v>AV36</v>
-      </c>
-      <c r="I6" s="12"/>
+        <f>'AVSSimplifiedDeployment-Inputs'!C11</f>
+        <v xml:space="preserve"> --Make Selection--</v>
+      </c>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B7" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!B22="It dosen't","None",IF('AVSSimplifiedDeployment-Inputs'!B22="VPN/SD-WAN","VPN",IF('AVSSimplifiedDeployment-Inputs'!B22="ExpressRoute","ExpressRoute")))</f>
-        <v>None</v>
-      </c>
-      <c r="I7" s="12"/>
+        <v>122</v>
+      </c>
+      <c r="B7" t="b">
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C24="It dosen't","None",IF('AVSSimplifiedDeployment-Inputs'!C24="VPN/SD-WAN","VPN",IF('AVSSimplifiedDeployment-Inputs'!C24="ExpressRoute","ExpressRoute")))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B13</f>
-        <v>New</v>
-      </c>
-      <c r="I8" s="12"/>
+        <f>'AVSSimplifiedDeployment-Inputs'!C15</f>
+        <v xml:space="preserve"> --Make Selection--</v>
+      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B9" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!B25="","",'AVSSimplifiedDeployment-Inputs'!B25)</f>
-        <v/>
-      </c>
-      <c r="I9" s="12"/>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C27="","",'AVSSimplifiedDeployment-Inputs'!C27)</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!B26="","",'AVSSimplifiedDeployment-Inputs'!B26)</f>
-        <v/>
-      </c>
-      <c r="I10" s="12"/>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C28="","",'AVSSimplifiedDeployment-Inputs'!C28)</f>
+        <v>Example: MyOnPremCircuit</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!B27="","",'AVSSimplifiedDeployment-Inputs'!B27)</f>
-        <v/>
-      </c>
-      <c r="I11" s="13"/>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C29="","",'AVSSimplifiedDeployment-Inputs'!C29)</f>
+        <v>Example: ProductionResourceGroup</v>
+      </c>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B14</f>
-        <v>1178f22f-6ce4-45e3-bd92-ba89930be5be</v>
-      </c>
-      <c r="I12" s="13"/>
+        <f>'AVSSimplifiedDeployment-Inputs'!C16</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B15</f>
-        <v>tredavis-ARC-vNet</v>
-      </c>
-      <c r="I13" s="13"/>
+        <f>'AVSSimplifiedDeployment-Inputs'!C17</f>
+        <v>Example: myvnet</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B16</f>
-        <v>tredavis-ARC-ExpressRouteGateway</v>
-      </c>
-      <c r="I14" s="13"/>
+        <f>'AVSSimplifiedDeployment-Inputs'!C18</f>
+        <v>Example: MyAVSvNetGateway</v>
+      </c>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B15" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B18</f>
-        <v>tredavis-ARC</v>
-      </c>
-      <c r="I15" s="13"/>
+        <f>'AVSSimplifiedDeployment-Inputs'!C20</f>
+        <v>Example: AVSResourceGroup</v>
+      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B16" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B17</f>
-        <v>Australia East</v>
-      </c>
-      <c r="I16" s="13"/>
+        <f>'AVSSimplifiedDeployment-Inputs'!C19</f>
+        <v xml:space="preserve"> --Make Selection--</v>
+      </c>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B17" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!B19</f>
-        <v>10.55.2.0/24</v>
-      </c>
-      <c r="I17" s="13"/>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C15="New",'AVSSimplifiedDeployment-Inputs'!C21,"")</f>
+        <v/>
+      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I18" s="13"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I19" s="12"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I20" s="12"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="I21" s="12"/>
+      <c r="I21" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ASlnnZFZAsK2OpBNUQ0gnMzjAGivu6o4Qa+JSk4I2CzgXyB7HDSumIFoofZNy3g1fwA0d9C2p4yIgD8IC2b1zg==" saltValue="JxkVhSgOoFBKGr3SxHCjmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="o+mw8buA5ti5yQkWnK/37kS7mcM7CK7Lzjp+ckxy0IPs3B4iJzqX7pwMZsOpSpxQc+eujUHdhYcehKRkrr26rg==" saltValue="8/C3ocaITqnxuKzVHDWZiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AVS-Deployment/avssimplifieddeployment.xlsx
+++ b/AVS-Deployment/avssimplifieddeployment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tredavis_microsoft_com/Documents/GitHub/Azure VMware Solution/AVS-Deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="380" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5AAFDA9-DEDF-40D3-B672-113710566DD0}"/>
+  <xr:revisionPtr revIDLastSave="510" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B10298-D9C9-4598-8C40-CB8908DCD45D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="4" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
     <sheet name="AVSSimplifiedDeployment-Inputs" sheetId="1" r:id="rId2"/>
-    <sheet name="EXAMPLE" sheetId="4" r:id="rId3"/>
+    <sheet name="EXAMPLE" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="variables" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -39,8 +39,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="165">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -474,13 +496,67 @@
     <t>ProductionResourceGroup</t>
   </si>
   <si>
-    <t>`</t>
-  </si>
-  <si>
     <t>Which AVS SKU would you like to deploy?</t>
   </si>
   <si>
     <t>For questions, please reach out to Trevor Davis on Twitter @vTrevorDavis</t>
+  </si>
+  <si>
+    <t>Add-Ons</t>
+  </si>
+  <si>
+    <t>Deploy ARC for AVS</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Network for ARC for AVS</t>
+  </si>
+  <si>
+    <t>This is a network which will be created on the Azure VMware Solution Private Cloud, i.e., an NSX Segment in the cluster.  It must be a /28 network segment.  Input a unique network segment which does not exist anywhere on-premises or within your Azure environment.  Must be in this format, x.x.x.1./28</t>
+  </si>
+  <si>
+    <t>192.168.10.1/28</t>
+  </si>
+  <si>
+    <t>general sub id</t>
+  </si>
+  <si>
+    <t>avsresourcegroup</t>
+  </si>
+  <si>
+    <t>myavsprivatecloudname</t>
+  </si>
+  <si>
+    <t>1.1.1.1/22</t>
+  </si>
+  <si>
+    <t>exrgwid</t>
+  </si>
+  <si>
+    <t>vnetforavsexrgw</t>
+  </si>
+  <si>
+    <t>exrgatewayname</t>
+  </si>
+  <si>
+    <t>rgforexrgw</t>
+  </si>
+  <si>
+    <t>1.1.1.0/24</t>
+  </si>
+  <si>
+    <t>111111111111111111foronpreexr</t>
+  </si>
+  <si>
+    <t>exrcircuitname</t>
+  </si>
+  <si>
+    <t>onpremexrcircuitrgname</t>
   </si>
 </sst>
 </file>
@@ -532,7 +608,7 @@
       <name val="Tenorite"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,7 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCC99FF"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -789,9 +871,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -819,27 +898,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -864,49 +922,114 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
+  <dxfs count="139">
     <dxf>
       <font>
         <color rgb="FF737373"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF737373"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -915,9 +1038,12 @@
       <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FF737373"/>
         </patternFill>
       </fill>
@@ -930,6 +1056,959 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightGrid">
+          <fgColor theme="1"/>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkGray"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF737373"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF65314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
     </dxf>
@@ -966,13 +2045,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF737373"/>
+      <color rgb="FFF65314"/>
       <color rgb="FFCC99FF"/>
-      <color rgb="FF737373"/>
       <color rgb="FF7CBB00"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FFCC00FF"/>
       <color rgb="FF00A1F1"/>
-      <color rgb="FFF65314"/>
       <color rgb="FFFFBB00"/>
     </mruColors>
   </colors>
@@ -1145,10 +2224,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1463,13 +2538,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A595C-DAF3-4421-A1FA-87EFAA3B5CCC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="52.7265625" style="3" customWidth="1"/>
@@ -1478,46 +2553,46 @@
     <col min="5" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
-      <c r="B5" s="65" t="s">
-        <v>146</v>
+      <c r="B5" s="56" t="s">
+        <v>145</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A6" s="22"/>
       <c r="B6" s="12" t="s">
         <v>104</v>
@@ -1526,344 +2601,365 @@
       <c r="D6" s="6"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="58" t="str">
-        <f>"Example: " &amp; EXAMPLE!C7</f>
-        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      <c r="C7" s="50" t="s">
+        <v>153</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="59" t="s">
-        <v>114</v>
+      <c r="C8" s="51" t="s">
+        <v>18</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="58" t="str">
-        <f>"Example: " &amp; EXAMPLE!C9</f>
-        <v>Example: myavsresourcegroup</v>
+      <c r="C9" s="50" t="s">
+        <v>154</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="58" t="str">
-        <f>"Example: " &amp; EXAMPLE!C10</f>
-        <v>Example: myavsprivatecloud</v>
+      <c r="C10" s="50" t="s">
+        <v>155</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="60" t="s">
-        <v>114</v>
+      <c r="C11" s="52" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="59" t="str">
-        <f>"Example: " &amp; EXAMPLE!C12</f>
-        <v>Example: 10.0.0.0/22</v>
+      <c r="C12" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>109</v>
       </c>
       <c r="C14" s="21"/>
-      <c r="D14" s="41"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="42" t="s">
         <v>110</v>
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="62" t="str">
-        <f>"Example: " &amp; EXAMPLE!C16</f>
-        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
-      </c>
-      <c r="D16" s="45" t="str">
+      <c r="C16" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="44" t="str">
         <f>IF($C$15="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is the Subscription ID where the ExpressRoute Gateway is currently deployed?</v>
+        <v>What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?</v>
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="62" t="str">
-        <f>"Example: " &amp; EXAMPLE!C17</f>
-        <v>Example: myvnet</v>
-      </c>
-      <c r="D17" s="45" t="str">
+      <c r="C17" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="44" t="str">
         <f>IF($C$15="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is name of the vNet where the ExpressRoute Gateway is currently deployed?</v>
+        <v>What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?</v>
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="62" t="str">
-        <f>"Example: " &amp; EXAMPLE!C18</f>
-        <v>Example: MyAVSvNetGateway</v>
-      </c>
-      <c r="D18" s="45" t="str">
+      <c r="C18" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18" s="44" t="str">
         <f>IF($C$15="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
-        <v>What is the name of the existing ExpressRoute Gateway?</v>
+        <v>What is the name you want to assign to the new ExpressRoute Gateway?</v>
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="45" t="str">
+      <c r="C19" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="44" t="str">
         <f>IF($C$15="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
-        <v>What region is the ExpressRoute Gateway currently deployed?</v>
+        <v>What region should the ExpressRoute Gateway be deployed?</v>
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="62" t="str">
-        <f>"Example: " &amp; EXAMPLE!C20</f>
-        <v>Example: AVSResourceGroup</v>
-      </c>
-      <c r="D20" s="45" t="str">
+      <c r="C20" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="44" t="str">
         <f>IF($C$15="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
-        <v xml:space="preserve">What Resource Group is the ExpressRoute Gateway currently deployed?  </v>
+        <v>What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.</v>
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="62" t="str">
-        <f>"Example: " &amp; EXAMPLE!C21</f>
-        <v>Example: 10.55.2.0/24</v>
-      </c>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="54" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
-      <c r="B25" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
-      <c r="B26" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="52"/>
+      <c r="B26" s="63" t="str" cm="1">
+        <f t="array" ref="B26">IF(C24="ExpressRoute","On-Prem ExpressRoute Circuit Details",IF(C24="VPN/SD-WAN","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after this script completes.",IF(C24="It dosen't",This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.,IF(C24=" --Make Selection--","On-Prem ExpressRoute Circuit Details"))))</f>
+        <v>On-Prem ExpressRoute Circuit Details</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="64" t="str">
-        <f>"Example: " &amp; EXAMPLE!C27</f>
-        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
-      </c>
-      <c r="D27" s="54" t="s">
+      <c r="C27" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D27" s="60" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="64" t="str">
-        <f>"Example: " &amp; EXAMPLE!C28</f>
-        <v>Example: MyOnPremCircuit</v>
-      </c>
-      <c r="D28" s="56" t="s">
+      <c r="C28" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="D28" s="62" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="64" t="str">
-        <f>"Example: " &amp; EXAMPLE!C29</f>
-        <v>Example: ProductionResourceGroup</v>
-      </c>
-      <c r="D29" s="56" t="s">
+      <c r="C29" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="62" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="22"/>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22"/>
+    </row>
+    <row r="31" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A31" s="22"/>
+      <c r="B31" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="74"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="70" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="E33" s="22"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TEaiOaggN5uXOBnZfAoLZgAGEukEum/9edpKsSeWk94haOcepUJ9KQLcyq5rp4rhfkDebFfWqLeSC5FTwS+uzQ==" saltValue="sKM8WYov2dvUr6ltQF4VDw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B1:D4"/>
+    <mergeCell ref="B26:D26"/>
   </mergeCells>
-  <conditionalFormatting sqref="B26:D29">
-    <cfRule type="expression" dxfId="7" priority="4">
-      <formula>$C$24&lt;&gt;"ExpressRoute"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>$C$15="Existing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:D25">
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$C$24=" --Make Selection--"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="12" priority="6">
       <formula>$C$24="VPN/SD-WAN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="9">
-      <formula>$C$24="ExpressRoute"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="10">
-      <formula>$C$24="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C21">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>ISNUMBER(SEARCH("Example",C7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>ISNUMBER(SEARCH("Example",C27))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>ISNUMBER(SEARCH("Example",C33))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:D29">
+    <cfRule type="expression" dxfId="8" priority="2">
+      <formula>$C$24="VPN/SD-WAN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$C$24="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="C20" unlockedFormula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AE682181-37AC-4335-B620-0940885D6DBA}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$25</xm:f>
@@ -1894,6 +2990,12 @@
           </x14:formula1>
           <xm:sqref>C11</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6E16447-EA5F-4CA8-A419-ACF5EEA69977}">
+          <x14:formula1>
+            <xm:f>Sheet2!$F$1:$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C32</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -1902,13 +3004,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220023C4-DB6D-482A-B02A-12E2E300F61E}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="46.08984375" style="3" customWidth="1"/>
@@ -1917,42 +3019,42 @@
     <col min="5" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B1" s="39" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A6" s="22"/>
       <c r="B6" s="12" t="s">
         <v>104</v>
@@ -1961,7 +3063,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="22"/>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -1974,7 +3076,7 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="22"/>
       <c r="B8" s="15" t="s">
         <v>1</v>
@@ -1987,7 +3089,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -2000,7 +3102,7 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
         <v>5</v>
@@ -2013,7 +3115,7 @@
       </c>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -2024,7 +3126,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A12" s="22"/>
       <c r="B12" s="15" t="s">
         <v>7</v>
@@ -2037,14 +3139,14 @@
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="11" t="s">
         <v>109</v>
@@ -2053,7 +3155,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A15" s="22"/>
       <c r="B15" s="17" t="s">
         <v>12</v>
@@ -2066,7 +3168,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="22"/>
       <c r="B16" s="19" t="s">
         <v>0</v>
@@ -2080,7 +3182,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="22"/>
       <c r="B17" s="19" t="s">
         <v>59</v>
@@ -2094,7 +3196,7 @@
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="22"/>
       <c r="B18" s="19" t="s">
         <v>60</v>
@@ -2108,7 +3210,7 @@
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="22"/>
       <c r="B19" s="19" t="s">
         <v>61</v>
@@ -2122,7 +3224,7 @@
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A20" s="22"/>
       <c r="B20" s="19" t="s">
         <v>115</v>
@@ -2136,7 +3238,7 @@
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" ht="35" x14ac:dyDescent="0.35">
       <c r="A21" s="22"/>
       <c r="B21" s="19" t="s">
         <v>103</v>
@@ -2149,14 +3251,14 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
       <c r="B23" s="26" t="s">
         <v>112</v>
@@ -2165,7 +3267,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="22"/>
       <c r="B24" s="27" t="s">
         <v>10</v>
@@ -2178,7 +3280,7 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="22"/>
       <c r="B25" s="28" t="s">
         <v>113</v>
@@ -2187,7 +3289,7 @@
       <c r="D25" s="30"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
       <c r="B26" s="38" t="s">
         <v>57</v>
@@ -2196,7 +3298,7 @@
       <c r="D26" s="33"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
       <c r="B27" s="34" t="s">
         <v>0</v>
@@ -2209,7 +3311,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
       <c r="B28" s="36" t="s">
         <v>107</v>
@@ -2222,7 +3324,7 @@
       </c>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
       <c r="B29" s="36" t="s">
         <v>58</v>
@@ -2235,39 +3337,43 @@
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
       <c r="E30" s="22"/>
     </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pqc88Z55Nyt/X0OC2aoPZM2UU+x4KMatnAT4yh8e+Hj59VpR1iPvLStPEenMPVpbcBpVEfhvnKoikrhS4tPD6Q==" saltValue="fRzqnOV9bhEZ2WSsDEFq9A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B1:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:XFD29">
-    <cfRule type="expression" dxfId="13" priority="1">
+    <cfRule type="expression" dxfId="138" priority="1">
       <formula>$C$24&lt;&gt;"ExpressRoute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="12" priority="6">
+    <cfRule type="expression" dxfId="137" priority="6">
       <formula>$C$15="Existing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:D25">
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="136" priority="2">
       <formula>$C$24=" --Make Selection--"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="135" priority="3">
       <formula>$C$24="VPN/SD-WAN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="134" priority="4">
       <formula>$C$24="ExpressRoute"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="133" priority="5">
       <formula>$C$24="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2319,10 +3425,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BD2BF4-A1D5-4479-8039-7C217C17B5B7}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2332,7 +3438,7 @@
     <col min="5" max="5" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -2348,8 +3454,11 @@
       <c r="E1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -2365,8 +3474,11 @@
       <c r="E2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -2383,7 +3495,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2397,7 +3509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2408,7 +3520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2416,7 +3528,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2424,7 +3536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2432,7 +3544,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -2440,7 +3552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -2448,7 +3560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2456,7 +3568,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2464,7 +3576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2472,7 +3584,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2480,7 +3592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2488,7 +3600,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -2824,7 +3936,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pGdJ0/UTDhy5Rto9eiCZeJ7Nb5z2eON46OcuxBehPZfb1GXurGiek/f/Gt1IQkNHiz/yGyG53PsC1I6+YZjbZw==" saltValue="AuYwqMNGvBzKjZx0jlZneA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:E80">
     <sortCondition ref="E1:E80"/>
   </sortState>
@@ -2836,8 +3947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEFFCAC-E961-4200-AF7B-F28C000C3CCE}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2853,7 +3964,7 @@
       </c>
       <c r="B1" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C7</f>
-        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+        <v>general sub id</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2862,7 +3973,7 @@
       </c>
       <c r="B2" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C8</f>
-        <v xml:space="preserve"> --Make Selection--</v>
+        <v>Australia Southeast</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -2871,7 +3982,7 @@
       </c>
       <c r="B3" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C9</f>
-        <v>Example: myavsresourcegroup</v>
+        <v>avsresourcegroup</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -2880,7 +3991,7 @@
       </c>
       <c r="B4" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C10</f>
-        <v>Example: myavsprivatecloud</v>
+        <v>myavsprivatecloudname</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -2889,7 +4000,7 @@
       </c>
       <c r="B5" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C12</f>
-        <v>Example: 10.0.0.0/22</v>
+        <v>1.1.1.1/22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
@@ -2898,7 +4009,7 @@
       </c>
       <c r="B6" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C11</f>
-        <v xml:space="preserve"> --Make Selection--</v>
+        <v>AV36P</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -2906,9 +4017,9 @@
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="b">
+      <c r="B7" t="str">
         <f>IF('AVSSimplifiedDeployment-Inputs'!C24="It dosen't","None",IF('AVSSimplifiedDeployment-Inputs'!C24="VPN/SD-WAN","VPN",IF('AVSSimplifiedDeployment-Inputs'!C24="ExpressRoute","ExpressRoute")))</f>
-        <v>0</v>
+        <v>ExpressRoute</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -2918,7 +4029,7 @@
       </c>
       <c r="B8" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C15</f>
-        <v xml:space="preserve"> --Make Selection--</v>
+        <v>New</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -2928,7 +4039,7 @@
       </c>
       <c r="B9" t="str">
         <f>IF('AVSSimplifiedDeployment-Inputs'!C27="","",'AVSSimplifiedDeployment-Inputs'!C27)</f>
-        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+        <v>111111111111111111foronpreexr</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -2938,7 +4049,7 @@
       </c>
       <c r="B10" t="str">
         <f>IF('AVSSimplifiedDeployment-Inputs'!C28="","",'AVSSimplifiedDeployment-Inputs'!C28)</f>
-        <v>Example: MyOnPremCircuit</v>
+        <v>exrcircuitname</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -2948,7 +4059,7 @@
       </c>
       <c r="B11" t="str">
         <f>IF('AVSSimplifiedDeployment-Inputs'!C29="","",'AVSSimplifiedDeployment-Inputs'!C29)</f>
-        <v>Example: ProductionResourceGroup</v>
+        <v>onpremexrcircuitrgname</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2958,7 +4069,7 @@
       </c>
       <c r="B12" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C16</f>
-        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+        <v>exrgwid</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2968,7 +4079,7 @@
       </c>
       <c r="B13" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C17</f>
-        <v>Example: myvnet</v>
+        <v>vnetforavsexrgw</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -2978,7 +4089,7 @@
       </c>
       <c r="B14" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C18</f>
-        <v>Example: MyAVSvNetGateway</v>
+        <v>exrgatewayname</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -2988,7 +4099,7 @@
       </c>
       <c r="B15" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C20</f>
-        <v>Example: AVSResourceGroup</v>
+        <v>rgforexrgw</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -2998,7 +4109,7 @@
       </c>
       <c r="B16" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C19</f>
-        <v xml:space="preserve"> --Make Selection--</v>
+        <v>Asia Pacific</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -3008,7 +4119,7 @@
       </c>
       <c r="B17" t="str">
         <f>IF('AVSSimplifiedDeployment-Inputs'!C15="New",'AVSSimplifiedDeployment-Inputs'!C21,"")</f>
-        <v/>
+        <v>1.1.1.0/24</v>
       </c>
       <c r="I17" s="2"/>
     </row>

--- a/AVS-Deployment/avssimplifieddeployment.xlsx
+++ b/AVS-Deployment/avssimplifieddeployment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tredavis_microsoft_com/Documents/GitHub/Azure VMware Solution/AVS-Deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="510" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1B10298-D9C9-4598-8C40-CB8908DCD45D}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5092AE29-BB8B-4326-AFDC-A308B3AE0C00}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="4" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="167">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -557,6 +557,12 @@
   </si>
   <si>
     <t>onpremexrcircuitrgname</t>
+  </si>
+  <si>
+    <t>$deployarc</t>
+  </si>
+  <si>
+    <t>$networkCIDRForApplianceVM</t>
   </si>
 </sst>
 </file>
@@ -923,9 +929,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -941,15 +944,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -970,30 +964,54 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="139">
+  <dxfs count="13">
     <dxf>
       <font>
-        <color rgb="FF737373"/>
+        <color theme="0"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
         <color rgb="FF737373"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF737373"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7CBB00"/>
+      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF737373"/>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1017,25 +1035,6 @@
         <i/>
         <color theme="0" tint="-0.499984740745262"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
     <dxf>
       <font>
@@ -1073,24 +1072,9 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
+        <color rgb="FF7CBB00"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
+      <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
     <dxf>
       <font>
@@ -1102,942 +1086,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightGrid">
-          <fgColor theme="1"/>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkGray"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF65314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7CBB00"/>
-      </font>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2555,32 +1603,32 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="22"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2829,49 +1877,49 @@
     </row>
     <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.35">
       <c r="A26" s="22"/>
-      <c r="B26" s="63" t="str" cm="1">
+      <c r="B26" s="72" t="str" cm="1">
         <f t="array" ref="B26">IF(C24="ExpressRoute","On-Prem ExpressRoute Circuit Details",IF(C24="VPN/SD-WAN","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after this script completes.",IF(C24="It dosen't",This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.,IF(C24=" --Make Selection--","On-Prem ExpressRoute Circuit Details"))))</f>
         <v>On-Prem ExpressRoute Circuit Details</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="74"/>
       <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="22"/>
-      <c r="B27" s="58" t="s">
+      <c r="B27" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="D27" s="60" t="s">
+      <c r="D27" s="59" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="22"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="61" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="22"/>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="D29" s="62" t="s">
+      <c r="D29" s="61" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="22"/>
@@ -2885,33 +1933,33 @@
     </row>
     <row r="31" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A31" s="22"/>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="68"/>
-      <c r="D31" s="69"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="22"/>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C32" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="74"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
       <c r="A33" s="22"/>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="67" t="s">
         <v>151</v>
       </c>
       <c r="E33" s="22"/>
@@ -2921,37 +1969,37 @@
     <mergeCell ref="B1:D4"/>
     <mergeCell ref="B26:D26"/>
   </mergeCells>
-  <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="13" priority="19">
-      <formula>$C$15="Existing"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B26">
     <cfRule type="expression" dxfId="12" priority="6">
       <formula>$C$24="VPN/SD-WAN"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B21:D21">
+    <cfRule type="expression" dxfId="11" priority="19">
+      <formula>$C$15="Existing"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:D29">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>$C$24="It dosen't"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$C$24="VPN/SD-WAN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C7:C21">
-    <cfRule type="expression" dxfId="11" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>ISNUMBER(SEARCH("Example",C7))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="expression" dxfId="10" priority="9">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>ISNUMBER(SEARCH("Example",C27))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>ISNUMBER(SEARCH("Example",C33))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D29">
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>$C$24="VPN/SD-WAN"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>$C$24="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3020,31 +2068,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="22"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -3354,26 +2402,26 @@
     <mergeCell ref="B1:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="A26:XFD29">
-    <cfRule type="expression" dxfId="138" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>$C$24&lt;&gt;"ExpressRoute"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="137" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$C$15="Existing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:D25">
-    <cfRule type="expression" dxfId="136" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$C$24=" --Make Selection--"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$C$24="VPN/SD-WAN"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C$24="ExpressRoute"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="133" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$C$24="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3948,7 +2996,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4124,9 +3172,23 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" t="str">
+        <f>'AVSSimplifiedDeployment-Inputs'!C32</f>
+        <v>Yes</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="str">
+        <f>'AVSSimplifiedDeployment-Inputs'!C33</f>
+        <v>192.168.10.1/28</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
@@ -4136,7 +3198,6 @@
       <c r="I21" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="o+mw8buA5ti5yQkWnK/37kS7mcM7CK7Lzjp+ckxy0IPs3B4iJzqX7pwMZsOpSpxQc+eujUHdhYcehKRkrr26rg==" saltValue="8/C3ocaITqnxuKzVHDWZiw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/AVS-Deployment/avssimplifieddeployment.xlsx
+++ b/AVS-Deployment/avssimplifieddeployment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tredavis_microsoft_com/Documents/GitHub/Azure VMware Solution/AVS-Deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5092AE29-BB8B-4326-AFDC-A308B3AE0C00}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA410BEF-D8F3-45E4-A00F-04135EC54A7E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="4" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
@@ -39,30 +39,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -523,30 +501,6 @@
     <t>192.168.10.1/28</t>
   </si>
   <si>
-    <t>general sub id</t>
-  </si>
-  <si>
-    <t>avsresourcegroup</t>
-  </si>
-  <si>
-    <t>myavsprivatecloudname</t>
-  </si>
-  <si>
-    <t>1.1.1.1/22</t>
-  </si>
-  <si>
-    <t>exrgwid</t>
-  </si>
-  <si>
-    <t>vnetforavsexrgw</t>
-  </si>
-  <si>
-    <t>exrgatewayname</t>
-  </si>
-  <si>
-    <t>rgforexrgw</t>
-  </si>
-  <si>
     <t>1.1.1.0/24</t>
   </si>
   <si>
@@ -563,6 +517,24 @@
   </si>
   <si>
     <t>$networkCIDRForApplianceVM</t>
+  </si>
+  <si>
+    <t>1178f22f-6ce4-45e3-bd92-ba89930be5be</t>
+  </si>
+  <si>
+    <t>VirtualWorkloads-AVS-PC01</t>
+  </si>
+  <si>
+    <t>VirtualWorkloads-AVS-vNet-Australia-East</t>
+  </si>
+  <si>
+    <t>For-VirtualWorkloads-AVS-PC01</t>
+  </si>
+  <si>
+    <t>VirtualWorkloads-AVS-Networking-Australia-East</t>
+  </si>
+  <si>
+    <t>192.168.88.1/28</t>
   </si>
 </sst>
 </file>
@@ -1588,11 +1560,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="52.7265625" style="3" customWidth="1"/>
@@ -1601,7 +1573,7 @@
     <col min="5" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
       <c r="B1" s="71" t="s">
         <v>135</v>
@@ -1610,28 +1582,28 @@
       <c r="D1" s="71"/>
       <c r="E1" s="22"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="56" t="s">
         <v>145</v>
@@ -1640,7 +1612,7 @@
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="12" t="s">
         <v>104</v>
@@ -1649,92 +1621,92 @@
       <c r="D6" s="6"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="B7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>106</v>
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
       <c r="A12" s="22"/>
       <c r="B12" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="39" t="s">
         <v>109</v>
@@ -1743,110 +1715,110 @@
       <c r="D14" s="40"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
       <c r="B15" s="41" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>110</v>
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
       <c r="B16" s="43" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="54" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D16" s="44" t="str">
         <f>IF($C$15="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?</v>
+        <v>What is the Subscription ID where the ExpressRoute Gateway is currently deployed?</v>
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="43" t="s">
         <v>59</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D17" s="44" t="str">
         <f>IF($C$15="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?</v>
+        <v>What is name of the vNet where the ExpressRoute Gateway is currently deployed?</v>
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="43" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D18" s="44" t="str">
         <f>IF($C$15="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
-        <v>What is the name you want to assign to the new ExpressRoute Gateway?</v>
+        <v>What is the name of the existing ExpressRoute Gateway?</v>
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="43" t="s">
         <v>61</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D19" s="44" t="str">
         <f>IF($C$15="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
-        <v>What region should the ExpressRoute Gateway be deployed?</v>
+        <v>What region is the ExpressRoute Gateway currently deployed?</v>
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="43" t="s">
         <v>115</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D20" s="44" t="str">
         <f>IF($C$15="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
-        <v>What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.</v>
+        <v xml:space="preserve">What Resource Group is the ExpressRoute Gateway currently deployed?  </v>
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" ht="35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
       <c r="A21" s="22"/>
       <c r="B21" s="43" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D21" s="44" t="s">
         <v>111</v>
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A23" s="22"/>
       <c r="B23" s="45" t="s">
         <v>112</v>
@@ -1855,76 +1827,76 @@
       <c r="D23" s="47"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="48" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D24" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="23"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A26" s="22"/>
-      <c r="B26" s="72" t="str" cm="1">
-        <f t="array" ref="B26">IF(C24="ExpressRoute","On-Prem ExpressRoute Circuit Details",IF(C24="VPN/SD-WAN","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after this script completes.",IF(C24="It dosen't",This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.,IF(C24=" --Make Selection--","On-Prem ExpressRoute Circuit Details"))))</f>
-        <v>On-Prem ExpressRoute Circuit Details</v>
+      <c r="B26" s="72" t="str">
+        <f>IF(C24="ExpressRoute","On-Prem ExpressRoute Circuit Details",IF(C24="VPN/SD-WAN","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after this script completes.",IF(C24="It dosen't","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.",IF(C24=" --Make Selection--","On-Prem ExpressRoute Circuit Details"))))</f>
+        <v>This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.</v>
       </c>
       <c r="C26" s="73"/>
       <c r="D26" s="74"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="22"/>
       <c r="B27" s="57" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="58" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D27" s="59" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="22"/>
       <c r="B28" s="60" t="s">
         <v>107</v>
       </c>
       <c r="C28" s="58" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D28" s="61" t="s">
         <v>105</v>
       </c>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="22"/>
       <c r="B29" s="60" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="58" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D29" s="61" t="s">
         <v>108</v>
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -1940,7 +1912,7 @@
       <c r="D31" s="65"/>
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="22"/>
       <c r="B32" s="68" t="s">
         <v>147</v>
@@ -1951,13 +1923,13 @@
       <c r="D32" s="70"/>
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.4">
       <c r="A33" s="22"/>
       <c r="B33" s="66" t="s">
         <v>150</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D33" s="67" t="s">
         <v>151</v>
@@ -2058,7 +2030,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="3"/>
     <col min="2" max="2" width="46.08984375" style="3" customWidth="1"/>
@@ -2067,42 +2039,42 @@
     <col min="5" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" s="71" t="s">
         <v>135</v>
       </c>
       <c r="C1" s="71"/>
       <c r="D1" s="71"/>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
       <c r="B2" s="71"/>
       <c r="C2" s="71"/>
       <c r="D2" s="71"/>
       <c r="E2" s="22"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
       <c r="B3" s="71"/>
       <c r="C3" s="71"/>
       <c r="D3" s="71"/>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="20" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A6" s="22"/>
       <c r="B6" s="12" t="s">
         <v>104</v>
@@ -2111,7 +2083,7 @@
       <c r="D6" s="6"/>
       <c r="E6" s="22"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="22"/>
       <c r="B7" s="13" t="s">
         <v>0</v>
@@ -2124,7 +2096,7 @@
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
       <c r="B8" s="15" t="s">
         <v>1</v>
@@ -2137,7 +2109,7 @@
       </c>
       <c r="E8" s="22"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
         <v>3</v>
@@ -2150,7 +2122,7 @@
       </c>
       <c r="E9" s="22"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
         <v>5</v>
@@ -2163,7 +2135,7 @@
       </c>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
       <c r="B11" s="7" t="s">
         <v>9</v>
@@ -2174,7 +2146,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="22"/>
     </row>
-    <row r="12" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
       <c r="A12" s="22"/>
       <c r="B12" s="15" t="s">
         <v>7</v>
@@ -2187,14 +2159,14 @@
       </c>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A14" s="22"/>
       <c r="B14" s="11" t="s">
         <v>109</v>
@@ -2203,7 +2175,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="1:5" ht="52.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
       <c r="A15" s="22"/>
       <c r="B15" s="17" t="s">
         <v>12</v>
@@ -2216,7 +2188,7 @@
       </c>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="22"/>
       <c r="B16" s="19" t="s">
         <v>0</v>
@@ -2230,7 +2202,7 @@
       </c>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="19" t="s">
         <v>59</v>
@@ -2244,7 +2216,7 @@
       </c>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="19" t="s">
         <v>60</v>
@@ -2258,7 +2230,7 @@
       </c>
       <c r="E18" s="22"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="19" t="s">
         <v>61</v>
@@ -2272,7 +2244,7 @@
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="19" t="s">
         <v>115</v>
@@ -2286,7 +2258,7 @@
       </c>
       <c r="E20" s="22"/>
     </row>
-    <row r="21" spans="1:5" ht="35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
       <c r="A21" s="22"/>
       <c r="B21" s="19" t="s">
         <v>103</v>
@@ -2299,14 +2271,14 @@
       </c>
       <c r="E21" s="22"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="22"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="23"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="20" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
       <c r="A23" s="22"/>
       <c r="B23" s="26" t="s">
         <v>112</v>
@@ -2315,7 +2287,7 @@
       <c r="D23" s="25"/>
       <c r="E23" s="22"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="22"/>
       <c r="B24" s="27" t="s">
         <v>10</v>
@@ -2328,7 +2300,7 @@
       </c>
       <c r="E24" s="22"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
       <c r="B25" s="28" t="s">
         <v>113</v>
@@ -2337,7 +2309,7 @@
       <c r="D25" s="30"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A26" s="22"/>
       <c r="B26" s="38" t="s">
         <v>57</v>
@@ -2346,7 +2318,7 @@
       <c r="D26" s="33"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="22"/>
       <c r="B27" s="34" t="s">
         <v>0</v>
@@ -2359,7 +2331,7 @@
       </c>
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="22"/>
       <c r="B28" s="36" t="s">
         <v>107</v>
@@ -2372,7 +2344,7 @@
       </c>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="22"/>
       <c r="B29" s="36" t="s">
         <v>58</v>
@@ -2385,14 +2357,14 @@
       </c>
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
       <c r="D30" s="23"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C33" s="3" t="s">
         <v>152</v>
       </c>
@@ -2995,7 +2967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEFFCAC-E961-4200-AF7B-F28C000C3CCE}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -3012,7 +2984,7 @@
       </c>
       <c r="B1" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C7</f>
-        <v>general sub id</v>
+        <v>1178f22f-6ce4-45e3-bd92-ba89930be5be</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3021,7 +2993,7 @@
       </c>
       <c r="B2" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C8</f>
-        <v>Australia Southeast</v>
+        <v>Australia East</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -3030,7 +3002,7 @@
       </c>
       <c r="B3" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C9</f>
-        <v>avsresourcegroup</v>
+        <v>VirtualWorkloads-AVS-PC01</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3039,7 +3011,7 @@
       </c>
       <c r="B4" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C10</f>
-        <v>myavsprivatecloudname</v>
+        <v>VirtualWorkloads-AVS-PC01</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3048,7 +3020,7 @@
       </c>
       <c r="B5" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C12</f>
-        <v>1.1.1.1/22</v>
+        <v>10.0.0.0/22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
@@ -3057,7 +3029,7 @@
       </c>
       <c r="B6" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C11</f>
-        <v>AV36P</v>
+        <v>AV36</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -3067,7 +3039,7 @@
       </c>
       <c r="B7" t="str">
         <f>IF('AVSSimplifiedDeployment-Inputs'!C24="It dosen't","None",IF('AVSSimplifiedDeployment-Inputs'!C24="VPN/SD-WAN","VPN",IF('AVSSimplifiedDeployment-Inputs'!C24="ExpressRoute","ExpressRoute")))</f>
-        <v>ExpressRoute</v>
+        <v>None</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -3077,7 +3049,7 @@
       </c>
       <c r="B8" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C15</f>
-        <v>New</v>
+        <v>Existing</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3117,7 +3089,7 @@
       </c>
       <c r="B12" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C16</f>
-        <v>exrgwid</v>
+        <v>1178f22f-6ce4-45e3-bd92-ba89930be5be</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -3127,7 +3099,7 @@
       </c>
       <c r="B13" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C17</f>
-        <v>vnetforavsexrgw</v>
+        <v>VirtualWorkloads-AVS-vNet-Australia-East</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -3137,7 +3109,7 @@
       </c>
       <c r="B14" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C18</f>
-        <v>exrgatewayname</v>
+        <v>For-VirtualWorkloads-AVS-PC01</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -3147,7 +3119,7 @@
       </c>
       <c r="B15" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C20</f>
-        <v>rgforexrgw</v>
+        <v>VirtualWorkloads-AVS-Networking-Australia-East</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -3157,7 +3129,7 @@
       </c>
       <c r="B16" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C19</f>
-        <v>Asia Pacific</v>
+        <v>Australia East</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -3167,13 +3139,13 @@
       </c>
       <c r="B17" t="str">
         <f>IF('AVSSimplifiedDeployment-Inputs'!C15="New",'AVSSimplifiedDeployment-Inputs'!C21,"")</f>
-        <v>1.1.1.0/24</v>
+        <v/>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B18" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C32</f>
@@ -3183,11 +3155,11 @@
     </row>
     <row r="19" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B19" t="str">
         <f>'AVSSimplifiedDeployment-Inputs'!C33</f>
-        <v>192.168.10.1/28</v>
+        <v>192.168.88.1/28</v>
       </c>
       <c r="I19" s="1"/>
     </row>

--- a/AVS-Deployment/avssimplifieddeployment.xlsx
+++ b/AVS-Deployment/avssimplifieddeployment.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/tredavis_microsoft_com/Documents/GitHub/Azure VMware Solution/AVS-Deployment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="531" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA410BEF-D8F3-45E4-A00F-04135EC54A7E}"/>
+  <xr:revisionPtr revIDLastSave="725" documentId="13_ncr:1_{F21C6151-FB12-4FC0-A8AB-6ADFF4C89D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461E4936-6828-45FA-93F8-3B65CADFB381}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{5967691A-8360-43DC-A1D4-F25DD7306A75}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="5" r:id="rId1"/>
     <sheet name="AVSSimplifiedDeployment-Inputs" sheetId="1" r:id="rId2"/>
-    <sheet name="EXAMPLE" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="EXAMPLE" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="variables" sheetId="3" r:id="rId5"/>
   </sheets>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="155">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -477,12 +477,6 @@
     <t>Which AVS SKU would you like to deploy?</t>
   </si>
   <si>
-    <t>For questions, please reach out to Trevor Davis on Twitter @vTrevorDavis</t>
-  </si>
-  <si>
-    <t>Add-Ons</t>
-  </si>
-  <si>
     <t>Deploy ARC for AVS</t>
   </si>
   <si>
@@ -501,47 +495,23 @@
     <t>192.168.10.1/28</t>
   </si>
   <si>
-    <t>1.1.1.0/24</t>
-  </si>
-  <si>
-    <t>111111111111111111foronpreexr</t>
-  </si>
-  <si>
-    <t>exrcircuitname</t>
-  </si>
-  <si>
-    <t>onpremexrcircuitrgname</t>
-  </si>
-  <si>
     <t>$deployarc</t>
   </si>
   <si>
     <t>$networkCIDRForApplianceVM</t>
   </si>
   <si>
-    <t>1178f22f-6ce4-45e3-bd92-ba89930be5be</t>
-  </si>
-  <si>
-    <t>VirtualWorkloads-AVS-PC01</t>
-  </si>
-  <si>
-    <t>VirtualWorkloads-AVS-vNet-Australia-East</t>
-  </si>
-  <si>
-    <t>For-VirtualWorkloads-AVS-PC01</t>
-  </si>
-  <si>
-    <t>VirtualWorkloads-AVS-Networking-Australia-East</t>
-  </si>
-  <si>
-    <t>192.168.88.1/28</t>
+    <t>Azure ARC for AVS</t>
+  </si>
+  <si>
+    <t>Help Videos &amp;  Documentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,12 +538,6 @@
       <name val="Tenorite"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Tenorite"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="16"/>
@@ -585,8 +549,22 @@
       <color theme="0"/>
       <name val="Tenorite"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Tenorite"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,8 +619,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -749,11 +733,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -775,8 +804,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -812,7 +841,7 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -846,10 +875,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -865,16 +894,10 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -900,7 +923,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -920,7 +942,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -936,23 +958,43 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="15">
     <dxf>
       <font>
         <color theme="0"/>
@@ -989,6 +1031,30 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i/>
         <color theme="0" tint="-0.499984740745262"/>
@@ -1010,14 +1076,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF737373"/>
+        <color theme="5" tint="0.59996337778862885"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
       <border>
         <left/>
         <right/>
@@ -1026,15 +1089,7 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF737373"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF737373"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="164" formatCode=";;;"/>
       <border>
         <left/>
         <right/>
@@ -1048,30 +1103,18 @@
       </font>
       <numFmt numFmtId="164" formatCode=";;;"/>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <u val="none"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBDD7EE"/>
+      <color rgb="FF00A1F1"/>
       <color rgb="FF737373"/>
       <color rgb="FFF65314"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF7CBB00"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FFCC00FF"/>
-      <color rgb="FF00A1F1"/>
       <color rgb="FFFFBB00"/>
     </mruColors>
   </colors>
@@ -1099,7 +1142,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1105648</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>180758</xdr:rowOff>
+      <xdr:rowOff>183933</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1543,6 +1586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D33C202-A6F5-485F-831C-6DD61CA6177C}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1558,10 +1602,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{073A595C-DAF3-4421-A1FA-87EFAA3B5CCC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -1575,408 +1619,483 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="22"/>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
       <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
-      <c r="B5" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="22"/>
+      <c r="B5" s="76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="78"/>
       <c r="D5" s="23"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="22"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="22"/>
+      <c r="B7" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
-      <c r="B7" s="13" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C8</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="B8" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C8" s="48" t="str">
+        <f>A8</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>106</v>
-      </c>
-      <c r="E7" s="22"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="22"/>
-      <c r="B8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>2</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C10</f>
+        <v>Example: myavsresourcegroup</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" s="16" t="s">
+      <c r="C10" s="48" t="str">
+        <f>A10</f>
+        <v>Example: myavsresourcegroup</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="22"/>
-      <c r="B10" s="15" t="s">
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C11</f>
+        <v>Example: myavsprivatecloud</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="50" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="16" t="s">
+      <c r="C11" s="48" t="str">
+        <f>A11</f>
+        <v>Example: myavsprivatecloud</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="22"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="22"/>
-      <c r="B11" s="7" t="s">
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="22"/>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C12" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
-      <c r="B12" s="15" t="s">
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.4">
+      <c r="A13" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C13</f>
+        <v>Example: 10.0.0.0/22</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C13" s="49" t="str">
+        <f>A13</f>
+        <v>Example: 10.0.0.0/22</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="22"/>
+      <c r="B15" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="41" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="42" t="s">
+      <c r="C16" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="43" t="s">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C17</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="44" t="str">
-        <f>IF($C$15="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
+      <c r="C17" s="52" t="str">
+        <f>"Example: "&amp;EXAMPLE!C17</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="D17" s="44" t="str">
+        <f>IF($C$16="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
         <v>What is the Subscription ID where the ExpressRoute Gateway is currently deployed?</v>
       </c>
-      <c r="E16" s="22"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="22"/>
-      <c r="B17" s="43" t="s">
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C18</f>
+        <v>Example: myvnet</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="44" t="str">
-        <f>IF($C$15="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
+      <c r="C18" s="52" t="str">
+        <f>"Example: "&amp;EXAMPLE!C18</f>
+        <v>Example: myvnet</v>
+      </c>
+      <c r="D18" s="44" t="str">
+        <f>IF($C$16="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
         <v>What is name of the vNet where the ExpressRoute Gateway is currently deployed?</v>
       </c>
-      <c r="E17" s="22"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="22"/>
-      <c r="B18" s="43" t="s">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C19</f>
+        <v>Example: MyAVSvNetGateway</v>
+      </c>
+      <c r="B19" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="44" t="str">
-        <f>IF($C$15="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
+      <c r="C19" s="52" t="str">
+        <f>"Example: "&amp;EXAMPLE!C19</f>
+        <v>Example: MyAVSvNetGateway</v>
+      </c>
+      <c r="D19" s="44" t="str">
+        <f>IF($C$16="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
         <v>What is the name of the existing ExpressRoute Gateway?</v>
       </c>
-      <c r="E18" s="22"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="22"/>
-      <c r="B19" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="44" t="str">
-        <f>IF($C$15="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
-        <v>What region is the ExpressRoute Gateway currently deployed?</v>
-      </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D20" s="44" t="str">
+        <f>IF($C$16="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
+        <v>What region is the ExpressRoute Gateway currently deployed?</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C21</f>
+        <v>Example: AVSResourceGroup</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="54" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="44" t="str">
-        <f>IF($C$15="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
+      <c r="C21" s="52" t="str">
+        <f>"Example: "&amp;EXAMPLE!C21</f>
+        <v>Example: AVSResourceGroup</v>
+      </c>
+      <c r="D21" s="44" t="str">
+        <f>IF($C$16="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
         <v xml:space="preserve">What Resource Group is the ExpressRoute Gateway currently deployed?  </v>
       </c>
-      <c r="E20" s="22"/>
-    </row>
-    <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
-      <c r="A21" s="22"/>
-      <c r="B21" s="43" t="s">
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="37" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C22</f>
+        <v>Example: 10.55.2.0/24</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="44" t="s">
+      <c r="C22" s="52" t="str">
+        <f>"Example: "&amp;EXAMPLE!C22</f>
+        <v>Example: 10.55.2.0/24</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="22"/>
+      <c r="B24" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="49" t="s">
-        <v>11</v>
+      <c r="C24" s="46"/>
+      <c r="D24" s="73" t="str">
+        <f>IF(C25="ExpressRoute","How does Azure connect to the on-premises environment?",IF(C25="VPN/SD-WAN","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after this script completes.",IF(C25="It dosen't","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.",IF(C25=" --Make Selection--","How does Azure connect to the on-premises environment?"))))</f>
+        <v>How does Azure connect to the on-premises environment?</v>
       </c>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
+      <c r="B25" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="74"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="22"/>
-      <c r="B26" s="72" t="str">
-        <f>IF(C24="ExpressRoute","On-Prem ExpressRoute Circuit Details",IF(C24="VPN/SD-WAN","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after this script completes.",IF(C24="It dosen't","This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.",IF(C24=" --Make Selection--","On-Prem ExpressRoute Circuit Details"))))</f>
-        <v>This script only supports connecting AVS to on-prem if on-prem is connected to Azure via an ExpressRoute.  You will need to manually connect AVS to on-prem after This script completes.</v>
-      </c>
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
       <c r="A27" s="22"/>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="70" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="22"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C28</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="B28" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="59" t="s">
+      <c r="C28" s="55" t="str">
+        <f>"Example: "&amp;EXAMPLE!C28</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
+      </c>
+      <c r="D28" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="22"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="22"/>
-      <c r="B28" s="60" t="s">
+      <c r="E28" s="22"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C29</f>
+        <v>Example: MyOnPremCircuit</v>
+      </c>
+      <c r="B29" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" s="61" t="s">
+      <c r="C29" s="55" t="str">
+        <f>"Example: "&amp;EXAMPLE!C29</f>
+        <v>Example: MyOnPremCircuit</v>
+      </c>
+      <c r="D29" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="22"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="22"/>
-      <c r="B29" s="60" t="s">
+      <c r="E29" s="22"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C30</f>
+        <v>Example: ProductionResourceGroup</v>
+      </c>
+      <c r="B30" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" s="61" t="s">
+      <c r="C30" s="55" t="str">
+        <f>"Example: "&amp;EXAMPLE!C30</f>
+        <v>Example: ProductionResourceGroup</v>
+      </c>
+      <c r="D30" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="22"/>
-      <c r="B31" s="63" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A32" s="22"/>
+      <c r="B32" s="60" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="22"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="22"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="22"/>
-      <c r="B32" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="69" t="s">
+      <c r="B33" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="67"/>
+      <c r="E33" s="22"/>
+    </row>
+    <row r="34" spans="1:5" ht="54" x14ac:dyDescent="0.4">
+      <c r="A34" s="22" t="str">
+        <f>"Example: "&amp;EXAMPLE!C34</f>
+        <v>Example: 192.168.10.1/28</v>
+      </c>
+      <c r="B34" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="22"/>
-    </row>
-    <row r="33" spans="1:5" ht="54" x14ac:dyDescent="0.4">
-      <c r="A33" s="22"/>
-      <c r="B33" s="66" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>151</v>
-      </c>
-      <c r="E33" s="22"/>
+      <c r="C34" s="59" t="str">
+        <f>"Example: "&amp;EXAMPLE!C34</f>
+        <v>Example: 192.168.10.1/28</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="B1:D4"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
   </mergeCells>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="expression" dxfId="12" priority="6">
-      <formula>$C$24="VPN/SD-WAN"</formula>
+  <conditionalFormatting sqref="B22:D22">
+    <cfRule type="expression" dxfId="14" priority="24">
+      <formula>$C$16="Existing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>$C$15="Existing"</formula>
+  <conditionalFormatting sqref="B27:D30">
+    <cfRule type="expression" dxfId="13" priority="4">
+      <formula>$C$25="VPN/SD-WAN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>$C$25="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B27:D29">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$24="It dosen't"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="2">
-      <formula>$C$24="VPN/SD-WAN"</formula>
+  <conditionalFormatting sqref="B34:D34">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$C$33="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:C21">
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>ISNUMBER(SEARCH("Example",C7))</formula>
+  <conditionalFormatting sqref="C8:C22">
+    <cfRule type="expression" dxfId="10" priority="13">
+      <formula>ISNUMBER(SEARCH("Example",C8))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C27:C29">
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>ISNUMBER(SEARCH("Example",C27))</formula>
+  <conditionalFormatting sqref="C28:C30">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>ISNUMBER(SEARCH("Example",C28))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>ISNUMBER(SEARCH("Example",C33))</formula>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>ISNUMBER(SEARCH("Example",C34))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D25">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$C$25="VPN/SD-WAN"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$C$25="It dosen't"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B5:B6" r:id="rId1" display="https://www.virtualworkloads.com/" xr:uid="{81C5833D-33DE-4C71-B352-8FCD1AE6A92C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
@@ -1984,37 +2103,37 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{204BFB0F-E118-4D1F-9650-CFEE35BD9992}">
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C24</xm:sqref>
+          <xm:sqref>C25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8520FE50-0FF2-4800-9FF3-4504ABE45190}">
           <x14:formula1>
             <xm:f>Sheet2!$D$1:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C15</xm:sqref>
+          <xm:sqref>C16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8287C2FF-7A0B-43D6-8D29-3F2054511EA6}">
           <x14:formula1>
             <xm:f>Sheet2!$E$1:$E$76</xm:f>
           </x14:formula1>
-          <xm:sqref>C19</xm:sqref>
+          <xm:sqref>C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A7E6580A-16DD-4CDF-BF30-61611FF822B4}">
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C11</xm:sqref>
+          <xm:sqref>C12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E6E16447-EA5F-4CA8-A419-ACF5EEA69977}">
           <x14:formula1>
             <xm:f>Sheet2!$F$1:$F$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C32</xm:sqref>
+          <xm:sqref>C33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2024,10 +2143,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{220023C4-DB6D-482A-B02A-12E2E300F61E}">
-  <dimension ref="A1:E33"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.4"/>
@@ -2040,365 +2160,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
       <c r="E2" s="22"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="22"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="22"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="22"/>
     </row>
-    <row r="6" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="22"/>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="22"/>
+      <c r="B7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="22"/>
-      <c r="B7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
-      <c r="B8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>2</v>
+      <c r="B8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="22"/>
       <c r="B9" s="15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="22"/>
       <c r="B10" s="15" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="22"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="22"/>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="22"/>
-    </row>
-    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.4">
-      <c r="A12" s="22"/>
-      <c r="B12" s="15" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.4">
+      <c r="A13" s="22"/>
+      <c r="B13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D13" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="22"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="22"/>
+      <c r="B15" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" ht="54" x14ac:dyDescent="0.4">
-      <c r="A15" s="22"/>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" ht="54" x14ac:dyDescent="0.4">
+      <c r="A16" s="22"/>
+      <c r="B16" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D16" s="18" t="s">
         <v>110</v>
-      </c>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="20" t="str">
-        <f>IF($C$15="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?</v>
       </c>
       <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="22"/>
       <c r="B17" s="19" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" s="20" t="str">
-        <f>IF($C$15="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
-        <v>What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?</v>
+        <f>IF($C$16="New","What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?","What is the Subscription ID where the ExpressRoute Gateway is currently deployed?")</f>
+        <v>What is the Subscription ID where you want to have the ExpressRoute Gateway deployed?</v>
       </c>
       <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="22"/>
       <c r="B18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D18" s="20" t="str">
-        <f>IF($C$15="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
-        <v>What is the name you want to assign to the new ExpressRoute Gateway?</v>
+        <f>IF($C$16="New","What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?","What is name of the vNet where the ExpressRoute Gateway is currently deployed?")</f>
+        <v>What is the name of the vNet where you want to have the ExpressRoute Gateway deployed?</v>
       </c>
       <c r="E18" s="22"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="22"/>
       <c r="B19" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="D19" s="20" t="str">
-        <f>IF($C$15="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
-        <v>What region should the ExpressRoute Gateway be deployed?</v>
+        <f>IF($C$16="New","What is the name you want to assign to the new ExpressRoute Gateway?","What is the name of the existing ExpressRoute Gateway?")</f>
+        <v>What is the name you want to assign to the new ExpressRoute Gateway?</v>
       </c>
       <c r="E19" s="22"/>
     </row>
-    <row r="20" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="22"/>
       <c r="B20" s="19" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="D20" s="20" t="str">
-        <f>IF($C$15="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
-        <v>What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.</v>
+        <f>IF($C$16="New","What region should the ExpressRoute Gateway be deployed?","What region is the ExpressRoute Gateway currently deployed?")</f>
+        <v>What region should the ExpressRoute Gateway be deployed?</v>
       </c>
       <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="36" x14ac:dyDescent="0.4">
       <c r="A21" s="22"/>
       <c r="B21" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f>IF($C$16="New","What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.","What Resource Group is the ExpressRoute Gateway currently deployed?  ")</f>
+        <v>What Resource Group should the ExpressRoute Gateway be deployed?  If the Resource Group does not exist it will be created.</v>
+      </c>
+      <c r="E21" s="22"/>
+    </row>
+    <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.4">
+      <c r="A22" s="22"/>
+      <c r="B22" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C22" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D22" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
       <c r="E22" s="22"/>
     </row>
-    <row r="23" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="22"/>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="22"/>
+    </row>
+    <row r="24" spans="1:5" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="22"/>
+      <c r="B24" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="22"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="22"/>
-      <c r="B24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="22"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="22"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="22"/>
+      <c r="B26" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
-      <c r="A26" s="22"/>
-      <c r="B26" s="38" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="22"/>
+    </row>
+    <row r="27" spans="1:5" ht="20.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="22"/>
+      <c r="B27" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="22"/>
-      <c r="B27" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>56</v>
-      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="22"/>
-      <c r="B28" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="D28" s="37" t="s">
-        <v>105</v>
+      <c r="B28" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="22"/>
       <c r="B29" s="36" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D29" s="37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="23"/>
+      <c r="B30" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>108</v>
+      </c>
       <c r="E30" s="22"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="3" t="s">
-        <v>152</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="22"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:D4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A26:XFD29">
+  <conditionalFormatting sqref="A27:XFD30">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$C$24&lt;&gt;"ExpressRoute"</formula>
+      <formula>$C$25&lt;&gt;"ExpressRoute"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21">
+  <conditionalFormatting sqref="B22:D22">
     <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$C$15="Existing"</formula>
+      <formula>$C$16="Existing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25:D25">
+  <conditionalFormatting sqref="B26:D26">
     <cfRule type="expression" dxfId="3" priority="2">
-      <formula>$C$24=" --Make Selection--"</formula>
+      <formula>$C$25=" --Make Selection--"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$C$24="VPN/SD-WAN"</formula>
+      <formula>$C$25="VPN/SD-WAN"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="4">
-      <formula>$C$24="ExpressRoute"</formula>
+      <formula>$C$25="ExpressRoute"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$C$24="It dosen't"</formula>
+      <formula>$C$25="It dosen't"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Format" prompt="Must be in this format - X.X.X.0/22, Example, 10.0.4.0/22" sqref="C12" xr:uid="{A6C8E224-83B9-4D66-886C-CD3A88D98CBC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Required Format" prompt="Must be in this format - X.X.X.0/22, Example, 10.0.4.0/22" sqref="C13" xr:uid="{A6C8E224-83B9-4D66-886C-CD3A88D98CBC}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2410,31 +2537,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$B$1:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>C11 C14</xm:sqref>
+          <xm:sqref>C12 C15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2163898A-9236-4ED9-9438-EAE9183040FD}">
           <x14:formula1>
             <xm:f>Sheet2!$E$1:$E$76</xm:f>
           </x14:formula1>
-          <xm:sqref>C19</xm:sqref>
+          <xm:sqref>C20</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C2C872F1-FB31-4CD0-BE96-1E39C7CC5281}">
           <x14:formula1>
             <xm:f>Sheet2!$D$1:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>C15 C26</xm:sqref>
+          <xm:sqref>C16 C27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{61B4C2D8-F71B-41F9-9297-F1C8B27ABC7B}">
           <x14:formula1>
             <xm:f>Sheet2!$C$1:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>C24</xm:sqref>
+          <xm:sqref>C25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B139CF2E-8B8E-4CBD-8F78-6A14363087AC}">
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$25</xm:f>
           </x14:formula1>
-          <xm:sqref>C8</xm:sqref>
+          <xm:sqref>C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2475,7 +2602,7 @@
         <v>114</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2495,7 +2622,7 @@
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2965,16 +3092,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEFFCAC-E961-4200-AF7B-F28C000C3CCE}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="79" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2983,8 +3111,8 @@
         <v>116</v>
       </c>
       <c r="B1" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C7</f>
-        <v>1178f22f-6ce4-45e3-bd92-ba89930be5be</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C8</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -2992,8 +3120,8 @@
         <v>117</v>
       </c>
       <c r="B2" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C8</f>
-        <v>Australia East</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C9</f>
+        <v xml:space="preserve"> --Make Selection--</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -3001,8 +3129,8 @@
         <v>118</v>
       </c>
       <c r="B3" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C9</f>
-        <v>VirtualWorkloads-AVS-PC01</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C10</f>
+        <v>Example: myavsresourcegroup</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -3010,8 +3138,8 @@
         <v>119</v>
       </c>
       <c r="B4" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C10</f>
-        <v>VirtualWorkloads-AVS-PC01</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C11</f>
+        <v>Example: myavsprivatecloud</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -3019,8 +3147,8 @@
         <v>120</v>
       </c>
       <c r="B5" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C12</f>
-        <v>10.0.0.0/22</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C13</f>
+        <v>Example: 10.0.0.0/22</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
@@ -3028,8 +3156,8 @@
         <v>121</v>
       </c>
       <c r="B6" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C11</f>
-        <v>AV36</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C12</f>
+        <v>AV52</v>
       </c>
       <c r="I6" s="1"/>
     </row>
@@ -3037,9 +3165,9 @@
       <c r="A7" t="s">
         <v>122</v>
       </c>
-      <c r="B7" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!C24="It dosen't","None",IF('AVSSimplifiedDeployment-Inputs'!C24="VPN/SD-WAN","VPN",IF('AVSSimplifiedDeployment-Inputs'!C24="ExpressRoute","ExpressRoute")))</f>
-        <v>None</v>
+      <c r="B7" t="b">
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C25="It dosen't","None",IF('AVSSimplifiedDeployment-Inputs'!C25="VPN/SD-WAN","VPN",IF('AVSSimplifiedDeployment-Inputs'!C25="ExpressRoute","ExpressRoute")))</f>
+        <v>0</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -3048,8 +3176,8 @@
         <v>123</v>
       </c>
       <c r="B8" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C15</f>
-        <v>Existing</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C16</f>
+        <v xml:space="preserve"> --Make Selection--</v>
       </c>
       <c r="I8" s="1"/>
     </row>
@@ -3058,8 +3186,8 @@
         <v>124</v>
       </c>
       <c r="B9" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!C27="","",'AVSSimplifiedDeployment-Inputs'!C27)</f>
-        <v>111111111111111111foronpreexr</v>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C28="","",'AVSSimplifiedDeployment-Inputs'!C28)</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
       </c>
       <c r="I9" s="1"/>
     </row>
@@ -3068,8 +3196,8 @@
         <v>125</v>
       </c>
       <c r="B10" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!C28="","",'AVSSimplifiedDeployment-Inputs'!C28)</f>
-        <v>exrcircuitname</v>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C29="","",'AVSSimplifiedDeployment-Inputs'!C29)</f>
+        <v>Example: MyOnPremCircuit</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -3078,8 +3206,8 @@
         <v>126</v>
       </c>
       <c r="B11" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!C29="","",'AVSSimplifiedDeployment-Inputs'!C29)</f>
-        <v>onpremexrcircuitrgname</v>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C30="","",'AVSSimplifiedDeployment-Inputs'!C30)</f>
+        <v>Example: ProductionResourceGroup</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -3088,8 +3216,8 @@
         <v>127</v>
       </c>
       <c r="B12" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C16</f>
-        <v>1178f22f-6ce4-45e3-bd92-ba89930be5be</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C17</f>
+        <v>Example: 11XXXXXX-6ce4-XXXX-bd92-XXXX930beXXX</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -3098,8 +3226,8 @@
         <v>128</v>
       </c>
       <c r="B13" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C17</f>
-        <v>VirtualWorkloads-AVS-vNet-Australia-East</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C18</f>
+        <v>Example: myvnet</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -3108,8 +3236,8 @@
         <v>129</v>
       </c>
       <c r="B14" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C18</f>
-        <v>For-VirtualWorkloads-AVS-PC01</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C19</f>
+        <v>Example: MyAVSvNetGateway</v>
       </c>
       <c r="I14" s="2"/>
     </row>
@@ -3118,8 +3246,8 @@
         <v>130</v>
       </c>
       <c r="B15" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C20</f>
-        <v>VirtualWorkloads-AVS-Networking-Australia-East</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C21</f>
+        <v>Example: AVSResourceGroup</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -3128,8 +3256,8 @@
         <v>131</v>
       </c>
       <c r="B16" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C19</f>
-        <v>Australia East</v>
+        <f>'AVSSimplifiedDeployment-Inputs'!C20</f>
+        <v xml:space="preserve"> --Make Selection--</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -3138,28 +3266,28 @@
         <v>132</v>
       </c>
       <c r="B17" t="str">
-        <f>IF('AVSSimplifiedDeployment-Inputs'!C15="New",'AVSSimplifiedDeployment-Inputs'!C21,"")</f>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C16="New",'AVSSimplifiedDeployment-Inputs'!C22,"")</f>
         <v/>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B18" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C32</f>
+        <f>'AVSSimplifiedDeployment-Inputs'!C33</f>
         <v>Yes</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B19" t="str">
-        <f>'AVSSimplifiedDeployment-Inputs'!C33</f>
-        <v>192.168.88.1/28</v>
+        <f>IF('AVSSimplifiedDeployment-Inputs'!C33="No","",'AVSSimplifiedDeployment-Inputs'!C34)</f>
+        <v>Example: 192.168.10.1/28</v>
       </c>
       <c r="I19" s="1"/>
     </row>
